--- a/Process Analytics Course Materials 2023/advanced_datasets/4 InSillicoFormulation/3 FormulatedProductExample/example2/PharmaceuticalProduct.xlsx
+++ b/Process Analytics Course Materials 2023/advanced_datasets/4 InSillicoFormulation/3 FormulatedProductExample/example2/PharmaceuticalProduct.xlsx
@@ -27140,7 +27140,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC8221DC-47E5-4E7C-AD44-086CE37E2F0A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04EAB356-D427-4B2E-A695-1C37335B7ECE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
